--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/menu/APP-10000@zero.desktop.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/menu/APP-10000@zero.desktop.xlsx
@@ -1,38 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0096CB40-D32F-E843-B635-ED0F64331B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49120" yWindow="-16120" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27900" windowHeight="11740" tabRatio="591"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -85,148 +67,293 @@
     <t>metadata</t>
   </si>
   <si>
+    <t>c2dfcd73-236d-494a-9e7b-96c2b49af815</t>
+  </si>
+  <si>
+    <t>BAG-MENU</t>
+  </si>
+  <si>
+    <t>zero.desktop</t>
+  </si>
+  <si>
     <t>工作台</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.desktop</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>desktop</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2dfcd73-236d-494a-9e7b-96c2b49af815</t>
-  </si>
-  <si>
-    <t>BAG-MENU</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/main/index</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0c454d0f-4ffa-45a9-871f-eaf84b5f8c4e</t>
   </si>
   <si>
+    <t>SIDE-MENU</t>
+  </si>
+  <si>
+    <t>zero.desktop.my</t>
+  </si>
+  <si>
+    <t>EXPAND</t>
+  </si>
+  <si>
     <t>68b04443-2400-4335-839f-19225333cb57</t>
   </si>
   <si>
+    <t>zero.desktop.my.task</t>
+  </si>
+  <si>
+    <t>我的待办</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>/my/todo-pending</t>
+  </si>
+  <si>
     <t>15090243-00d6-4a66-8d7f-cd7c164d62d7</t>
   </si>
   <si>
-    <t>SIDE-MENU</t>
-  </si>
-  <si>
-    <t>zero.desktop.my</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.desktop.my.task</t>
-  </si>
-  <si>
     <t>zero.desktop.my.report</t>
   </si>
   <si>
-    <t>工作台</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的待办</t>
-  </si>
-  <si>
     <t>个人报表</t>
   </si>
   <si>
-    <t>desktop</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>calendar</t>
-  </si>
-  <si>
     <t>area-chart</t>
   </si>
   <si>
-    <t>EXPAND</t>
-  </si>
-  <si>
-    <t>/my/todo-pending</t>
-  </si>
-  <si>
     <t>/my/todo-report</t>
+  </si>
+  <si>
+    <t>92639987-4d3e-4ba0-b392-8235d0d615b4</t>
+  </si>
+  <si>
+    <t>zero.desktop.my.dept</t>
+  </si>
+  <si>
+    <t>所有工单</t>
+  </si>
+  <si>
+    <t>/my/dept-all</t>
+  </si>
+  <si>
+    <t>11766c62-8307-418b-9f6f-68158456dca7</t>
+  </si>
+  <si>
+    <t>zero.desktop.my.dept.noauth</t>
+  </si>
+  <si>
+    <t>/my/dept-all-noauth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="4"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="4"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="4"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="4"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,25 +362,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,12 +390,211 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -288,23 +614,252 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,60 +868,101 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -624,196 +1220,238 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="17.2"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.1083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.575" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.3833333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.8333333333333" style="3" customWidth="1"/>
     <col min="8" max="9" width="16.5" style="3"/>
     <col min="10" max="16384" width="16.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
+    <row r="1" spans="9:10">
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="D8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G8" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="C9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="9"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:G2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>